--- a/data/modeling_data/spearman_correlations.xlsx
+++ b/data/modeling_data/spearman_correlations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morga\GitHub\Transpiration-ML-Project\Transpiration-ML-Project\data\modeling_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5C384F-1107-4D7C-9654-E3B9A6C10A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8387FC-A80F-48F3-AF88-2825E94B05E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>Ta</t>
   </si>
   <si>
-    <t>RH</t>
-  </si>
-  <si>
     <t>VPD</t>
   </si>
   <si>
@@ -80,12 +77,18 @@
   </si>
   <si>
     <t>All Data</t>
+  </si>
+  <si>
+    <t>Mixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -698,7 +701,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,13 +721,19 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1082,18 +1091,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F15"/>
+      <selection activeCell="G3" sqref="G3:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1106,292 +1116,339 @@
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3">
         <v>0.43913379257257201</v>
       </c>
       <c r="C2" s="3">
-        <v>-0.20099198690748599</v>
+        <v>0.34152326475189199</v>
       </c>
       <c r="D2" s="3">
-        <v>0.34152326475189199</v>
-      </c>
-      <c r="E2" s="3">
         <v>0.45519662755868701</v>
       </c>
-      <c r="F2" s="4">
+      <c r="E2" s="4">
         <v>0.16738398742215099</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>0.46908131958407201</v>
       </c>
       <c r="C3" s="3">
-        <v>-0.34829399671929201</v>
+        <v>0.46612302657879501</v>
       </c>
       <c r="D3" s="3">
-        <v>0.46612302657879501</v>
-      </c>
-      <c r="E3" s="3">
         <v>0.51076102575121396</v>
       </c>
-      <c r="F3" s="4">
+      <c r="E3" s="4">
         <v>-7.3293195949151499E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>0.68175062204177495</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.68460393453306401</v>
+        <v>0.70608444260075098</v>
       </c>
       <c r="D4" s="3">
-        <v>0.70608444260075098</v>
-      </c>
-      <c r="E4" s="3">
         <v>0.71512980785676805</v>
       </c>
-      <c r="F4" s="4">
+      <c r="E4" s="4">
         <v>-4.3151129147984697E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>0.41980990583326699</v>
       </c>
       <c r="C5" s="3">
-        <v>-0.50757496438058403</v>
+        <v>0.58312607562089203</v>
       </c>
       <c r="D5" s="3">
-        <v>0.58312607562089203</v>
-      </c>
-      <c r="E5" s="3">
         <v>0.57641660789712801</v>
       </c>
-      <c r="F5" s="4">
+      <c r="E5" s="4">
         <v>0.124773076839998</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
         <v>0.66696626070708298</v>
       </c>
       <c r="C6" s="3">
-        <v>-0.84355396410015404</v>
+        <v>0.85025018241763795</v>
       </c>
       <c r="D6" s="3">
-        <v>0.85025018241763795</v>
-      </c>
-      <c r="E6" s="3">
         <v>0.70694982360194203</v>
       </c>
-      <c r="F6" s="4">
+      <c r="E6" s="4">
         <v>-0.23617542671362499</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.59769914373865995</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.55799943452846001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.58929758260509202</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.103239464472901</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.38453488063542801</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.29716721421492198</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.42483542581003902</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.15607332087818701</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.54024899310630903</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.60421530611932495</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.60483119197253199</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3.6141106181720299E-3</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.60141521294934597</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-0.36657410105548</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.56982333610679903</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.59504673591419399</v>
-      </c>
-      <c r="F7" s="4">
-        <v>8.6347763036880396E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.38543992517051201</v>
-      </c>
-      <c r="C8" s="3">
-        <v>-0.198470319765604</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.308751162062054</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.432391889099628</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.14726687568698699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="3">
+        <v>0.48299690183847599</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.50653718086733301</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.49490693671688901</v>
+      </c>
+      <c r="E10" s="4">
+        <v>-9.4700852067781394E-2</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.48299690183847599</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-0.425299046781343</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.50653718086733301</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.49490693671688901</v>
-      </c>
-      <c r="F9" s="4">
-        <v>-9.4700852067781394E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="3">
+        <v>0.47969771195998101</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.42553756919359198</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.4860467703561</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.24638626348887399</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.47969771195998101</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-0.32201933664853899</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.42553756919359198</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.4860467703561</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.24638626348887399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="3">
+        <v>0.68175062204177495</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.70608444260075098</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.71512980785676805</v>
+      </c>
+      <c r="E12" s="4">
+        <v>-4.3151129147984697E-2</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.68175062204177495</v>
-      </c>
-      <c r="C11" s="3">
-        <v>-0.68460393453306401</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.70608444260075098</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.71512980785676805</v>
-      </c>
-      <c r="F11" s="4">
-        <v>-4.3151129147984697E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="3">
+        <v>0.69646557762681705</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.52767439920376602</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.71872147439273504</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.10103441026632901</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.69646557762681705</v>
-      </c>
-      <c r="C12" s="3">
-        <v>-0.41491225961525802</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.52767439920376602</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.71872147439273504</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.10103441026632901</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B14" s="3">
+        <v>0.13520966003315801</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5.3244137068054198E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-0.20335288606016499</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.130907576897943</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.13520966003315801</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3.4457535561696402E-2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>5.3244137068054198E-2</v>
-      </c>
-      <c r="E13" s="3">
-        <v>-0.20335288606016499</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.130907576897943</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="3">
+        <v>0.60652513320372603</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.58347752009526699</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.65070170310023101</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.2203837744093E-2</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.60652513320372603</v>
-      </c>
-      <c r="C14" s="3">
-        <v>-0.45588705083393399</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.58347752009526699</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.65070170310023101</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2.2203837744093E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="B16" s="5">
         <v>0.40631180829380298</v>
       </c>
-      <c r="C15" s="5">
-        <v>-0.28810658510175402</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C16" s="5">
         <v>0.434193647487079</v>
       </c>
-      <c r="E15" s="5">
+      <c r="D16" s="5">
         <v>0.68122443796499499</v>
       </c>
-      <c r="F15" s="6">
+      <c r="E16" s="6">
         <v>0.14912277671846999</v>
       </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
